--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>随货</t>
+  </si>
+  <si>
+    <t>科升电子</t>
+  </si>
+  <si>
+    <t>优速</t>
+  </si>
+  <si>
+    <t>E2835UZ28,4800-5200K,26-28LM,</t>
+  </si>
+  <si>
+    <t>E2835UW60,60-65LM,6000-6500K</t>
   </si>
 </sst>
 </file>
@@ -172,8 +184,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -204,99 +216,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,58 +687,58 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -738,70 +750,70 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,7 +1190,11 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C14:C18"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1548,29 +1564,55 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="3">
+        <v>43544</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
@@ -1661,7 +1703,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="23040" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
+    <sheet name="德芯" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$22</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -175,6 +175,79 @@
   </si>
   <si>
     <t>E2835UW60,60-65LM,6000-6500K</t>
+  </si>
+  <si>
+    <t>海宝照明</t>
+  </si>
+  <si>
+    <t>E2835UW120-3A/125-130LM/65-F/8.8-9.1V</t>
+  </si>
+  <si>
+    <t>样品型号</t>
+  </si>
+  <si>
+    <t>样品参数</t>
+  </si>
+  <si>
+    <t>9V100MA2835</t>
+  </si>
+  <si>
+    <t>1600-1800K,亮度暂时不知道，用最常规的芯片大小做就好了</t>
+  </si>
+  <si>
+    <t>200pcs</t>
+  </si>
+  <si>
+    <t>9V1OOMA5730</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6000-6500K,R70,120-130lm，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要求底部焊盘是3个的支架</t>
+    </r>
+  </si>
+  <si>
+    <t>200PCS</t>
+  </si>
+  <si>
+    <t>3V60MA金黄光</t>
+  </si>
+  <si>
+    <t>豪通样品</t>
+  </si>
+  <si>
+    <t>根据样品做200个样品</t>
+  </si>
+  <si>
+    <t>9V60MA金黄光</t>
+  </si>
+  <si>
+    <t>0.1W红光</t>
+  </si>
+  <si>
+    <t>测试参数就可，看下芯片大小</t>
+  </si>
+  <si>
+    <t>0.2W红光</t>
+  </si>
+  <si>
+    <t>0.2W黄光</t>
   </si>
 </sst>
 </file>
@@ -183,11 +256,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +279,81 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -216,80 +364,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -297,18 +388,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,35 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,181 +447,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -590,15 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,19 +683,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +727,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +755,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,145 +767,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1189,12 +1284,12 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1203,472 +1298,485 @@
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="48.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
-    <col min="5" max="6" width="19.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>43439</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>43442</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>600</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>600</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>600</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>43448</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>100</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>100</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>100</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>100</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>43448</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>100</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>100</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>100</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="8">
         <v>43517</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>100</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>100</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>100</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>100</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>100</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="A19" s="8">
         <v>43524</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>400</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="8">
         <v>43544</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>100</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>100</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>100</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="A23" s="8">
+        <v>43559</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4">
+        <v>200</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4">
+        <v>200</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G19">
+  <autoFilter ref="A2:G22">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -1683,14 +1791,108 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="2:4">
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>E2835UW120-3A/125-130LM/65-F/8.8-9.1V</t>
+  </si>
+  <si>
+    <t>恒耀电子</t>
+  </si>
+  <si>
+    <t>E2835UW27B/65-1/C24/3.2-3.3V</t>
+  </si>
+  <si>
+    <t>12.8元/K</t>
+  </si>
+  <si>
+    <t>E2835UW23/65-4/C10/3.1-3.2V</t>
+  </si>
+  <si>
+    <t>红光，14mil，联盛，9-10lm</t>
+  </si>
+  <si>
+    <t>双芯黄光，14mil晶元</t>
+  </si>
+  <si>
+    <t>245元/K</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -256,8 +277,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -288,6 +309,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -296,6 +332,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -303,9 +346,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +391,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -327,9 +417,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,30 +435,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,59 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -453,13 +474,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,157 +552,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,17 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,11 +695,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,22 +714,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,15 +736,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -747,6 +744,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -755,10 +776,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,91 +791,88 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,41 +881,44 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,7 +952,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,14 +1306,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1743,40 +1767,163 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="A25" s="8">
+        <v>43564</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4">
+        <v>100</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="11">
+        <v>100</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12">
+        <v>43559</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="11">
+        <v>100</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="11">
+        <v>100</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="11"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G22">
+  <autoFilter ref="A2:G24">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -1794,7 +1941,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1806,10 +1953,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1817,79 +1964,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$36</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -202,6 +202,45 @@
   </si>
   <si>
     <t>245元/K</t>
+  </si>
+  <si>
+    <t>豪通电子</t>
+  </si>
+  <si>
+    <t>2835红光、620-624nm/2.0-2.1V/700-900MCD</t>
+  </si>
+  <si>
+    <t>2835红光、620-624nm/2.3-2.4V/1800-2300MCD</t>
+  </si>
+  <si>
+    <t>2835金黄光，1600K,21-23LM,2.8-2.9V</t>
+  </si>
+  <si>
+    <t>2835金黄光，1700K,50-55LM,9.0-9.3V</t>
+  </si>
+  <si>
+    <t>有朵花</t>
+  </si>
+  <si>
+    <t>E2835UR21-R,R2、I</t>
+  </si>
+  <si>
+    <t>冠阳电子</t>
+  </si>
+  <si>
+    <t>E2835UW29-8/24-26LM/65-8</t>
+  </si>
+  <si>
+    <t>E2835UN24/40-0A/3.2-3.3V/C24</t>
+  </si>
+  <si>
+    <t>E2835UN26/40-0A/3.0-3.1V/C24</t>
+  </si>
+  <si>
+    <t>双豪照明</t>
+  </si>
+  <si>
+    <t>E5730US60/B5/3.1-3.2V/E7</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -276,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -304,6 +343,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +379,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -331,22 +409,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,98 +485,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,6 +501,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -480,37 +549,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,127 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,11 +710,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +760,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,58 +802,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,137 +827,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,12 +990,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1308,12 +1341,12 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1324,6 +1357,7 @@
     <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
     <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:7">
@@ -1786,144 +1820,202 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="4">
         <v>100</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12">
+      <c r="A27" s="8">
         <v>43559</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="4">
         <v>100</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="4">
         <v>100</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="A29" s="8">
+        <v>43571</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4">
+        <v>50</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="11"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4">
+        <v>50</v>
+      </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="11"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4">
+        <v>50</v>
+      </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="4">
+        <v>50</v>
+      </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="8">
+        <v>43572</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4">
+        <v>200</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="A34" s="8">
+        <v>43573</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="4">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="8">
+        <v>43573</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="4">
+        <v>100</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="8">
+        <v>43573</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="4">
+        <v>200</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G24">
+  <autoFilter ref="A2:G36">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -1940,8 +2032,8 @@
   <sheetPr/>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1953,10 +2045,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -1964,79 +2056,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>E5730US60/B5/3.1-3.2V/E7</t>
+  </si>
+  <si>
+    <t>20189-4-23</t>
+  </si>
+  <si>
+    <t>E2835UW70-P/65-SF(6200-6700K),3.2-3.2V/70-75LM</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -316,9 +322,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -341,8 +347,130 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,141 +484,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -501,187 +507,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,21 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -735,16 +726,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,16 +776,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,10 +821,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +833,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,11 +1348,11 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2006,16 +2012,24 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4">
+        <v>100</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G36">
+  <autoFilter ref="A2:G37">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2045,10 +2059,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2056,79 +2070,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -135,6 +135,9 @@
     <t>35元/K</t>
   </si>
   <si>
+    <t>颜色稍微偏绿了，不能用</t>
+  </si>
+  <si>
     <t>立早电子</t>
   </si>
   <si>
@@ -225,6 +228,9 @@
     <t>E2835UR21-R,R2、I</t>
   </si>
   <si>
+    <t>测试OK</t>
+  </si>
+  <si>
     <t>冠阳电子</t>
   </si>
   <si>
@@ -243,10 +249,28 @@
     <t>E5730US60/B5/3.1-3.2V/E7</t>
   </si>
   <si>
-    <t>20189-4-23</t>
-  </si>
-  <si>
     <t>E2835UW70-P/65-SF(6200-6700K),3.2-3.2V/70-75LM</t>
+  </si>
+  <si>
+    <t>3v60ma2835,26-28lm，3.0-3.1v,6200-6700k,70显</t>
+  </si>
+  <si>
+    <t>按照客户的样品颜色做</t>
+  </si>
+  <si>
+    <t>腾光电子</t>
+  </si>
+  <si>
+    <t>主要看铜支架产品颜色</t>
+  </si>
+  <si>
+    <t>E2835UW21-BG,C7,3.2-3.3,L2</t>
+  </si>
+  <si>
+    <t>E2835UR21-R,R2、I,3.1-3.2V</t>
+  </si>
+  <si>
+    <t>E2835UG21-G,G1,C10,3.2-3.3V</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -322,9 +346,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -347,9 +371,77 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +455,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -371,15 +464,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,75 +494,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -477,13 +508,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -507,187 +531,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +740,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -726,16 +765,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,31 +815,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,133 +857,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,17 +1369,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="FC24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="FV40" sqref="FV40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
@@ -1594,7 +1618,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
@@ -1610,13 +1634,16 @@
         <v>37</v>
       </c>
       <c r="G13" s="4"/>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>43517</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1670,7 +1697,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4">
         <v>100</v>
@@ -1679,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1687,13 +1714,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4">
         <v>100</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
@@ -1705,22 +1732,22 @@
         <v>43524</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="4">
         <v>400</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1728,7 +1755,7 @@
         <v>43544</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -1743,20 +1770,20 @@
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4">
         <v>100</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1765,13 +1792,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4">
         <v>100</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1781,7 +1808,7 @@
         <v>43559</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>14</v>
@@ -1797,7 +1824,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4">
         <v>200</v>
@@ -1811,17 +1838,17 @@
         <v>43564</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4">
         <v>100</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1829,14 +1856,14 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4">
         <v>100</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1848,7 +1875,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="4">
         <v>100</v>
@@ -1861,14 +1888,14 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4">
         <v>100</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1877,10 +1904,10 @@
         <v>43571</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4">
         <v>50</v>
@@ -1893,7 +1920,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -1906,7 +1933,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" s="4">
         <v>50</v>
@@ -1919,7 +1946,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32" s="4">
         <v>50</v>
@@ -1933,10 +1960,10 @@
         <v>43572</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" s="4">
         <v>200</v>
@@ -1945,17 +1972,19 @@
       <c r="F33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>43573</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" s="4">
         <v>100</v>
@@ -1969,10 +1998,10 @@
         <v>43573</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="4">
         <v>100</v>
@@ -1985,7 +2014,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" s="4">
         <v>100</v>
@@ -1999,10 +2028,10 @@
         <v>43573</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" s="4">
         <v>200</v>
@@ -2012,14 +2041,14 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4" t="s">
-        <v>74</v>
+      <c r="A38" s="8">
+        <v>43578</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4">
         <v>100</v>
@@ -2028,8 +2057,307 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8">
+        <v>43594</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4">
+        <v>100</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8">
+        <v>43616</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="4">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8">
+        <v>43616</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4">
+        <v>100</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="4">
+        <v>100</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="4">
+        <v>100</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G37">
+  <autoFilter ref="A2:G39">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2059,10 +2387,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2070,79 +2398,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$43</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>E2835UN24/40-0A/3.2-3.3V/C24</t>
+  </si>
+  <si>
+    <t>未税</t>
   </si>
   <si>
     <t>E2835UN26/40-0A/3.0-3.1V/C24</t>
@@ -345,9 +348,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -372,76 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,6 +390,13 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -464,16 +405,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,8 +441,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +505,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,21 +739,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,41 +768,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -832,8 +785,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,133 +860,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,11 +1375,11 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="FC24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="FV40" sqref="FV40"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2007,31 +2010,39 @@
         <v>100</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="4">
+        <v>100</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="4">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8">
         <v>43573</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4">
         <v>200</v>
@@ -2048,7 +2059,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="4">
         <v>100</v>
@@ -2065,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4">
         <v>100</v>
@@ -2075,7 +2086,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2083,7 +2094,7 @@
         <v>43616</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -2092,7 +2103,7 @@
         <v>100</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2105,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="4">
         <v>100</v>
@@ -2118,7 +2129,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" s="4">
         <v>100</v>
@@ -2131,7 +2142,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="4">
         <v>100</v>
@@ -2357,7 +2368,7 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G39">
+  <autoFilter ref="A2:G43">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2387,10 +2398,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2398,79 +2409,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>E2835UG21-G,G1,C10,3.2-3.3V</t>
+  </si>
+  <si>
+    <t>豪钿电子</t>
+  </si>
+  <si>
+    <t>E2835UW23-13,13-L3区，14-L</t>
+  </si>
+  <si>
+    <t>双芯，6000-6500K，带20*20基板</t>
+  </si>
+  <si>
+    <t>三芯的，带基板</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -300,7 +312,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>6000-6500K,R70,120-130lm，</t>
     </r>
@@ -310,7 +321,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>要求底部焊盘是3个的支架</t>
     </r>
@@ -348,9 +358,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -375,30 +385,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,7 +407,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +452,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -434,8 +483,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,75 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -534,25 +544,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,157 +598,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,8 +756,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,45 +806,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,15 +827,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -840,153 +835,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,54 +1037,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1370,30 +1380,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="48.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
-    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="12.1153846153846" customWidth="1"/>
+    <col min="2" max="2" width="13.4423076923077" customWidth="1"/>
+    <col min="3" max="3" width="48.1153846153846" customWidth="1"/>
+    <col min="4" max="4" width="9.11538461538461" customWidth="1"/>
+    <col min="5" max="5" width="12.6634615384615" customWidth="1"/>
+    <col min="6" max="6" width="11.5576923076923" customWidth="1"/>
+    <col min="7" max="7" width="14.5576923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.2" spans="1:7">
+    <row r="1" ht="31.6" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1591,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="18" spans="1:7">
       <c r="A11" s="8">
         <v>43448</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="18" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
@@ -1621,7 +1631,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.6" spans="1:8">
+    <row r="13" ht="18" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
@@ -2152,19 +2162,35 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="8">
+        <v>43634</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="4">
+        <v>100</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="8">
+        <v>43634</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="4">
+        <v>8</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -2172,17 +2198,29 @@
     <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="A47" s="8">
+        <v>43631</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4">
+        <v>100</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2368,9 +2406,7 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G43">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:G43"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -2381,7 +2417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:D9"/>
   <sheetViews>
@@ -2389,99 +2425,99 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8846153846154" customWidth="1"/>
+    <col min="3" max="3" width="26.3365384615385" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" ht="17" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="2:4">
+    <row r="3" ht="51" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="2:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" ht="17" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" ht="17" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" ht="17" spans="2:4">
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2500,7 +2536,7 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$47</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -358,12 +358,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,10 +384,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,11 +399,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,18 +421,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,15 +447,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,9 +499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,21 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -514,25 +529,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -544,6 +549,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,175 +597,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,8 +761,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,17 +770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +791,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -810,21 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -832,6 +828,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,148 +860,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,15 +1386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1437,7 +1442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="8">
         <v>43439</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="8">
         <v>43442</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1500,7 +1505,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1517,7 +1522,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" hidden="1" spans="1:7">
       <c r="A7" s="8">
         <v>43448</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" hidden="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1557,7 +1562,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1574,7 +1579,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1614,7 +1619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:7">
+    <row r="12" ht="18" hidden="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
@@ -1631,7 +1636,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="18" spans="1:8">
+    <row r="13" ht="18" hidden="1" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
@@ -1651,7 +1656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" hidden="1" spans="1:7">
       <c r="A14" s="8">
         <v>43517</v>
       </c>
@@ -1672,7 +1677,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1689,7 +1694,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1706,7 +1711,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1723,7 +1728,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1740,7 +1745,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" s="8">
         <v>43524</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="8">
         <v>43544</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1801,7 +1806,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1816,7 +1821,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" s="8">
         <v>43559</v>
       </c>
@@ -1833,7 +1838,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1846,7 +1851,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" s="8">
         <v>43564</v>
       </c>
@@ -1865,7 +1870,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1897,7 +1902,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -1912,7 +1917,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="8">
         <v>43571</v>
       </c>
@@ -1929,7 +1934,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -1942,7 +1947,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -1955,7 +1960,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -1968,7 +1973,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="8">
         <v>43572</v>
       </c>
@@ -1989,7 +1994,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="8">
         <v>43573</v>
       </c>
@@ -2006,7 +2011,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="8">
         <v>43573</v>
       </c>
@@ -2027,7 +2032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -2044,7 +2049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="8">
         <v>43573</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" hidden="1" spans="1:7">
       <c r="A40" s="8">
         <v>43616</v>
       </c>
@@ -2118,7 +2123,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" s="8">
         <v>43616</v>
       </c>
@@ -2135,7 +2140,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -2148,7 +2153,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -2161,7 +2166,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="8">
         <v>43634</v>
       </c>
@@ -2178,7 +2183,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="8">
         <v>43634</v>
       </c>
@@ -2195,7 +2200,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" hidden="1" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -2208,7 +2213,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="8">
         <v>43631</v>
       </c>
@@ -2406,7 +2411,13 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G43"/>
+  <autoFilter ref="A2:G47">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="潘富敏"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11980"/>
+    <workbookView windowWidth="23040" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>三芯的，带基板</t>
+  </si>
+  <si>
+    <t>CREE/ XPE21CR4/70-75显值</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -358,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -385,7 +388,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -393,29 +396,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +418,74 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,47 +502,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,28 +532,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -549,25 +552,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,138 +727,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,11 +770,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,32 +839,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,181 +858,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1042,54 +1048,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1385,30 +1391,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.1153846153846" customWidth="1"/>
-    <col min="2" max="2" width="13.4423076923077" customWidth="1"/>
-    <col min="3" max="3" width="48.1153846153846" customWidth="1"/>
-    <col min="4" max="4" width="9.11538461538461" customWidth="1"/>
-    <col min="5" max="5" width="12.6634615384615" customWidth="1"/>
-    <col min="6" max="6" width="11.5576923076923" customWidth="1"/>
-    <col min="7" max="7" width="14.5576923076923" customWidth="1"/>
+    <col min="1" max="1" width="12.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="13.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="48.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="14.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.6" spans="1:7">
+    <row r="1" ht="28.2" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>43439</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>43442</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1505,7 +1511,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" hidden="1" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1522,7 +1528,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" hidden="1" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="8">
         <v>43448</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1562,7 +1568,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" hidden="1" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1579,7 +1585,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" hidden="1" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1596,7 +1602,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="18" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="8">
         <v>43448</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="18" hidden="1" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
@@ -1636,7 +1642,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="18" hidden="1" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
@@ -1656,7 +1662,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>43517</v>
       </c>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" hidden="1" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1694,7 +1700,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" hidden="1" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1711,7 +1717,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" hidden="1" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1728,7 +1734,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" hidden="1" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1745,7 +1751,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" hidden="1" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>43524</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>43544</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1806,7 +1812,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" hidden="1" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1821,7 +1827,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>43559</v>
       </c>
@@ -1838,7 +1844,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" hidden="1" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1851,7 +1857,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" hidden="1" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
         <v>43564</v>
       </c>
@@ -1870,7 +1876,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1902,7 +1908,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" hidden="1" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -1917,7 +1923,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
         <v>43571</v>
       </c>
@@ -1934,7 +1940,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -1947,7 +1953,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -1960,7 +1966,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -1973,7 +1979,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
         <v>43572</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>43573</v>
       </c>
@@ -2011,7 +2017,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="8">
         <v>43573</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -2049,7 +2055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="8">
         <v>43573</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:7">
+    <row r="40" spans="1:7">
       <c r="A40" s="8">
         <v>43616</v>
       </c>
@@ -2123,7 +2129,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" hidden="1" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="8">
         <v>43616</v>
       </c>
@@ -2140,7 +2146,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" hidden="1" spans="1:7">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -2153,7 +2159,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" hidden="1" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -2166,7 +2172,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" hidden="1" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="8">
         <v>43634</v>
       </c>
@@ -2183,7 +2189,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" hidden="1" spans="1:7">
+    <row r="45" spans="1:7">
       <c r="A45" s="8">
         <v>43634</v>
       </c>
@@ -2200,7 +2206,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" hidden="1" spans="1:7">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -2213,7 +2219,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" hidden="1" spans="1:7">
+    <row r="47" spans="1:7">
       <c r="A47" s="8">
         <v>43631</v>
       </c>
@@ -2230,14 +2236,26 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+    <row r="48" ht="15.6" spans="1:7">
+      <c r="A48" s="8">
+        <v>43645</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="4">
+        <v>230</v>
+      </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4"/>
@@ -2412,11 +2430,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:G47">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="潘富敏"/>
-      </customFilters>
-    </filterColumn>
+    <extLst/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2428,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:D9"/>
   <sheetViews>
@@ -2436,99 +2450,99 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="15.8846153846154" customWidth="1"/>
-    <col min="3" max="3" width="26.3365384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="17" spans="2:4">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="51" spans="2:4">
+    <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" ht="51" spans="2:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" ht="17" spans="2:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" ht="17" spans="2:4">
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" ht="17" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" ht="17" spans="2:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" ht="17" spans="2:4">
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2539,7 +2553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2547,7 +2561,7 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$48</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -387,23 +387,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,31 +402,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +426,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,25 +478,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,18 +508,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,37 +552,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,127 +696,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,15 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -781,6 +772,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,9 +817,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,17 +841,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,17 +858,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -866,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,137 +878,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,9 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1392,15 +1389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1448,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" hidden="1" spans="1:7">
       <c r="A3" s="8">
         <v>43439</v>
       </c>
@@ -1471,7 +1468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" hidden="1" spans="1:7">
       <c r="A4" s="8">
         <v>43442</v>
       </c>
@@ -1494,7 +1491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" hidden="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1511,7 +1508,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1528,7 +1525,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" hidden="1" spans="1:7">
       <c r="A7" s="8">
         <v>43448</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" hidden="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1568,7 +1565,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" hidden="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1585,7 +1582,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1602,7 +1599,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="15.6" hidden="1" spans="1:7">
       <c r="A11" s="8">
         <v>43448</v>
       </c>
@@ -1625,7 +1622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="15.6" hidden="1" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
@@ -1642,7 +1639,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.6" spans="1:8">
+    <row r="13" ht="15.6" hidden="1" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
@@ -1662,7 +1659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" hidden="1" spans="1:7">
       <c r="A14" s="8">
         <v>43517</v>
       </c>
@@ -1683,7 +1680,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" hidden="1" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1700,7 +1697,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" hidden="1" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1717,7 +1714,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" hidden="1" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1734,7 +1731,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" hidden="1" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1751,7 +1748,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" hidden="1" spans="1:7">
       <c r="A19" s="8">
         <v>43524</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="8">
         <v>43544</v>
       </c>
@@ -1797,7 +1794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" hidden="1" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1812,7 +1809,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1827,7 +1824,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" s="8">
         <v>43559</v>
       </c>
@@ -1844,7 +1841,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1857,7 +1854,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" s="8">
         <v>43564</v>
       </c>
@@ -1876,7 +1873,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" hidden="1" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1891,7 +1888,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" hidden="1" spans="1:7">
       <c r="A27" s="8">
         <v>43559</v>
       </c>
@@ -1908,7 +1905,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" hidden="1" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -1923,7 +1920,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" hidden="1" spans="1:7">
       <c r="A29" s="8">
         <v>43571</v>
       </c>
@@ -1940,7 +1937,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" hidden="1" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -1953,7 +1950,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" hidden="1" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -1966,7 +1963,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" hidden="1" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -1979,7 +1976,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="8">
         <v>43572</v>
       </c>
@@ -2000,7 +1997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="8">
         <v>43573</v>
       </c>
@@ -2017,7 +2014,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="8">
         <v>43573</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -2055,7 +2052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" hidden="1" spans="1:7">
       <c r="A37" s="8">
         <v>43573</v>
       </c>
@@ -2072,7 +2069,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" hidden="1" spans="1:7">
       <c r="A38" s="8">
         <v>43578</v>
       </c>
@@ -2089,7 +2086,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" hidden="1" spans="1:7">
       <c r="A39" s="8">
         <v>43594</v>
       </c>
@@ -2129,7 +2126,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" hidden="1" spans="1:7">
       <c r="A41" s="8">
         <v>43616</v>
       </c>
@@ -2146,7 +2143,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" hidden="1" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -2159,7 +2156,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" hidden="1" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -2172,7 +2169,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="8">
         <v>43634</v>
       </c>
@@ -2189,7 +2186,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="8">
         <v>43634</v>
       </c>
@@ -2206,7 +2203,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" hidden="1" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -2236,14 +2233,14 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" ht="15.6" spans="1:7">
+    <row r="48" ht="15.6" hidden="1" spans="1:7">
       <c r="A48" s="8">
         <v>43645</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D48" s="4">
@@ -2429,7 +2426,12 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G47">
+  <autoFilter ref="A2:G48">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="equal" val="腾光电子"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="1">

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -192,7 +192,7 @@
     <t>E2835UW27B/65-1/C24/3.2-3.3V</t>
   </si>
   <si>
-    <t>12.8元/K</t>
+    <t>12.5元/K</t>
   </si>
   <si>
     <t>E2835UW23/65-4/C10/3.1-3.2V</t>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>CREE/ XPE21CR4/70-75显值</t>
+  </si>
+  <si>
+    <t>亿阳电子</t>
+  </si>
+  <si>
+    <t>E2835UW28(A),65-SF,C29,2.9-3.0V</t>
+  </si>
+  <si>
+    <t>E2835UW27/24-26LM,6500K,65-1,C25</t>
+  </si>
+  <si>
+    <t>E2835UW27B/65-4/C24/3.2-3.3V</t>
+  </si>
+  <si>
+    <t>E2835UW21-10,13,C8,3.2-3.3V</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -394,17 +409,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,20 +425,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,19 +446,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,13 +471,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,8 +492,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,6 +531,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -570,30 +585,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -606,31 +675,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,78 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,30 +772,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,17 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -837,6 +817,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +862,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -866,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,106 +896,106 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,22 +1004,22 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1389,15 +1404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1445,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>43439</v>
       </c>
@@ -1468,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>43442</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1508,7 +1523,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" hidden="1" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1525,7 +1540,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" hidden="1" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="8">
         <v>43448</v>
       </c>
@@ -1548,7 +1563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1565,7 +1580,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" hidden="1" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1582,7 +1597,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" hidden="1" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1599,7 +1614,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" ht="15.6" hidden="1" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="8">
         <v>43448</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="15.6" hidden="1" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
@@ -1639,7 +1654,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" ht="15.6" hidden="1" spans="1:8">
+    <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="9" t="s">
@@ -1659,7 +1674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>43517</v>
       </c>
@@ -1680,7 +1695,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" hidden="1" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1697,7 +1712,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" hidden="1" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1714,7 +1729,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" hidden="1" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1731,7 +1746,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" hidden="1" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1748,7 +1763,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" hidden="1" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>43524</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>43544</v>
       </c>
@@ -1794,7 +1809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1809,7 +1824,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" hidden="1" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1824,7 +1839,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" hidden="1" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>43559</v>
       </c>
@@ -1841,7 +1856,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" hidden="1" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1854,7 +1869,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" hidden="1" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
         <v>43564</v>
       </c>
@@ -1873,7 +1888,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" hidden="1" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1888,7 +1903,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" hidden="1" spans="1:7">
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
         <v>43559</v>
       </c>
@@ -1905,7 +1920,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" hidden="1" spans="1:7">
+    <row r="28" spans="1:7">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -1920,7 +1935,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" hidden="1" spans="1:7">
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
         <v>43571</v>
       </c>
@@ -1937,7 +1952,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" hidden="1" spans="1:7">
+    <row r="30" spans="1:7">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -1950,7 +1965,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" hidden="1" spans="1:7">
+    <row r="31" spans="1:7">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -1963,7 +1978,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" hidden="1" spans="1:7">
+    <row r="32" spans="1:7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
@@ -1976,7 +1991,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" hidden="1" spans="1:7">
+    <row r="33" spans="1:7">
       <c r="A33" s="8">
         <v>43572</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:7">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <v>43573</v>
       </c>
@@ -2014,7 +2029,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" hidden="1" spans="1:7">
+    <row r="35" spans="1:7">
       <c r="A35" s="8">
         <v>43573</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
@@ -2052,7 +2067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:7">
+    <row r="37" spans="1:7">
       <c r="A37" s="8">
         <v>43573</v>
       </c>
@@ -2069,7 +2084,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" hidden="1" spans="1:7">
+    <row r="38" spans="1:7">
       <c r="A38" s="8">
         <v>43578</v>
       </c>
@@ -2086,7 +2101,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" hidden="1" spans="1:7">
+    <row r="39" spans="1:7">
       <c r="A39" s="8">
         <v>43594</v>
       </c>
@@ -2126,7 +2141,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" hidden="1" spans="1:7">
+    <row r="41" spans="1:7">
       <c r="A41" s="8">
         <v>43616</v>
       </c>
@@ -2143,7 +2158,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" hidden="1" spans="1:7">
+    <row r="42" spans="1:7">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -2156,7 +2171,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" hidden="1" spans="1:7">
+    <row r="43" spans="1:7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
@@ -2169,7 +2184,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" hidden="1" spans="1:7">
+    <row r="44" spans="1:7">
       <c r="A44" s="8">
         <v>43634</v>
       </c>
@@ -2186,7 +2201,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" hidden="1" spans="1:7">
+    <row r="45" spans="1:7">
       <c r="A45" s="8">
         <v>43634</v>
       </c>
@@ -2203,7 +2218,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" hidden="1" spans="1:7">
+    <row r="46" spans="1:7">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
@@ -2233,7 +2248,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" ht="15.6" hidden="1" spans="1:7">
+    <row r="48" ht="15.6" spans="1:7">
       <c r="A48" s="8">
         <v>43645</v>
       </c>
@@ -2255,39 +2270,75 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="4">
+        <v>100</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="8">
+        <v>43661</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="4">
+        <v>100</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="8">
+        <v>43663</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="4">
+        <v>100</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4">
+        <v>12</v>
+      </c>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="A52" s="8">
+        <v>43666</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="4">
+        <v>100</v>
+      </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4">
+        <v>10</v>
+      </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
@@ -2426,12 +2477,7 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G48">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="腾光电子"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A2:G51">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2449,7 +2495,7 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -2461,10 +2507,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2472,79 +2518,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$52</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -304,6 +304,27 @@
   </si>
   <si>
     <t>E2835UW21-10,13,C8,3.2-3.3V</t>
+  </si>
+  <si>
+    <t>E2835UW27(B)-7,70-0A,C24,3.1-3.2V</t>
+  </si>
+  <si>
+    <t>雅佳达</t>
+  </si>
+  <si>
+    <t>TD2835A-X2V2-RA,2.2-2.4V,620-625NM,7-8LM</t>
+  </si>
+  <si>
+    <t>5730红光，2.4-2.6V,20-22LM,620-625NM</t>
+  </si>
+  <si>
+    <t>2835金黄光，3.0-3.1V,45-50LM,1600-1800K,</t>
+  </si>
+  <si>
+    <t>2835冷白光，2.8-2.9V,24-26LM,15000-20000K,</t>
+  </si>
+  <si>
+    <t>13.5元/K</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -403,7 +424,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,15 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,24 +521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,7 +538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,32 +552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,187 +588,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,47 +797,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,26 +824,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +855,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -881,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,133 +914,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1412,7 +1433,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2342,19 +2363,35 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="8">
+        <v>43668</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="4">
+        <v>100</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="8">
+        <v>43668</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="4">
+        <v>100</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -2362,8 +2399,12 @@
     <row r="55" spans="1:7">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="4">
+        <v>100</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -2371,8 +2412,12 @@
     <row r="56" spans="1:7">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="4">
+        <v>100</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2380,8 +2425,12 @@
     <row r="57" spans="1:7">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="4">
+        <v>100</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2389,10 +2438,16 @@
     <row r="58" spans="1:7">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="4">
+        <v>100</v>
+      </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
@@ -2477,7 +2532,7 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G51">
+  <autoFilter ref="A2:G52">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2507,10 +2562,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2518,79 +2573,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$59</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="120">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -186,7 +186,7 @@
     <t>E2835UW120-3A/125-130LM/65-F/8.8-9.1V</t>
   </si>
   <si>
-    <t>恒耀电子</t>
+    <t>恒耀照明</t>
   </si>
   <si>
     <t>E2835UW27B/65-1/C24/3.2-3.3V</t>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>13.5元/K</t>
+  </si>
+  <si>
+    <t>5050RGB05</t>
+  </si>
+  <si>
+    <t>5050RGB07</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -398,9 +404,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -421,13 +427,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -452,19 +451,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,14 +468,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,11 +511,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,24 +526,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,13 +594,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,169 +774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,15 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,15 +814,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,17 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -867,6 +844,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,10 +908,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,133 +920,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,11 +1435,11 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2451,21 +2457,37 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="A59" s="8">
+        <v>43672</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="4">
+        <v>100</v>
+      </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="F59" s="4">
+        <v>28</v>
+      </c>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="4">
+        <v>100</v>
+      </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="F60" s="4">
+        <v>45</v>
+      </c>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
@@ -2532,7 +2554,7 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G52">
+  <autoFilter ref="A2:G59">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2562,10 +2584,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2573,79 +2595,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540"/>
+    <workbookView windowWidth="22488" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$62</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="128">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -331,6 +331,30 @@
   </si>
   <si>
     <t>5050RGB07</t>
+  </si>
+  <si>
+    <t>三芯8Q,欧司朗正规渠道8QF或5R,8.15-8.9V</t>
+  </si>
+  <si>
+    <t>二芯，6Q:800-900lm,5.45-5.95v,5500-6000K</t>
+  </si>
+  <si>
+    <t>杭州海捷威</t>
+  </si>
+  <si>
+    <t>E2835UW20,-1区</t>
+  </si>
+  <si>
+    <t>7元/K</t>
+  </si>
+  <si>
+    <t>圆通</t>
+  </si>
+  <si>
+    <t>欧司朗2芯，5.45-5.95V,5500-6000K,800-900lm</t>
+  </si>
+  <si>
+    <t>3.5未税</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -403,10 +427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -429,6 +453,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -443,69 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,9 +520,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,8 +550,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,23 +568,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,187 +618,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,17 +827,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,17 +866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,29 +886,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,6 +909,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -908,10 +932,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,133 +944,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1435,11 +1459,11 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2492,8 +2516,12 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2502,28 +2530,52 @@
     <row r="62" spans="1:7">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="A63" s="8">
+        <v>43703</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="4">
+        <v>50</v>
+      </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="A64" s="8">
+        <v>43703</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
@@ -2554,7 +2606,7 @@
       <c r="G67" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G59">
+  <autoFilter ref="A2:G62">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2584,10 +2636,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2595,79 +2647,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$69</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -355,6 +355,36 @@
   </si>
   <si>
     <t>3.5未税</t>
+  </si>
+  <si>
+    <t>F5有边圆头，60°角</t>
+  </si>
+  <si>
+    <t>3分钱一个</t>
+  </si>
+  <si>
+    <t>淮安金达</t>
+  </si>
+  <si>
+    <t>E5730UW65/E8/G4/3.1-3.2V</t>
+  </si>
+  <si>
+    <t>E4014UW27(A)/S2-3/C14/2.9-2.95V</t>
+  </si>
+  <si>
+    <t>E3014UD24,C7,2.9-3.0V,5P2</t>
+  </si>
+  <si>
+    <t>余姚科光</t>
+  </si>
+  <si>
+    <t>E2835UW29/C28/65-1</t>
+  </si>
+  <si>
+    <t>E2835UW68-P/E70/65-SF</t>
+  </si>
+  <si>
+    <t>E2835US68-P/E70/30-SF</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -429,8 +459,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -453,8 +483,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -470,44 +592,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,69 +621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,7 +648,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,13 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,67 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,85 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,11 +857,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +907,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,58 +949,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,133 +974,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,14 +1486,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2579,19 +2609,37 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="A65" s="8">
+        <v>43713</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2000</v>
+      </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="8">
+        <v>43705</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="4">
+        <v>60</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -2599,14 +2647,234 @@
     <row r="67" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="4">
+        <v>30</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="4">
+        <v>100</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="4">
+        <v>100</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8">
+        <v>43717</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="4">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4">
+        <v>16</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="4">
+        <v>100</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4">
+        <v>35</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="4">
+        <v>100</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4">
+        <v>35</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="4">
+        <v>100</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4">
+        <v>45</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G62">
+  <autoFilter ref="A2:G69">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2636,10 +2904,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2647,79 +2915,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>E2835US68-P/E70/30-SF</t>
+  </si>
+  <si>
+    <t>金达</t>
+  </si>
+  <si>
+    <t>斯迈得，2835,0.2W，24.5-26.5lm、2870-3220K,RA&gt;80,三安8*18</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -457,10 +463,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -484,9 +490,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,16 +572,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,44 +611,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -568,60 +619,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +654,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,156 +828,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,18 +835,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,26 +863,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,6 +908,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -926,22 +947,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,8 +955,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,133 +980,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,7 +1499,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2748,13 +2754,27 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+      <c r="A74" s="8">
+        <v>43735</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="4">
+        <v>100</v>
+      </c>
+      <c r="E74" s="4">
+        <v>13</v>
+      </c>
+      <c r="F74" s="4">
+        <v>19</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4"/>
@@ -2874,7 +2894,7 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G69">
+  <autoFilter ref="A2:G73">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2904,10 +2924,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2915,79 +2935,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9540"/>
+    <workbookView windowWidth="22488" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$74</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>斯迈得，2835,0.2W，24.5-26.5lm、2870-3220K,RA&gt;80,三安8*18</t>
+  </si>
+  <si>
+    <t>周其强</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -463,10 +466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -490,21 +493,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,9 +553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,61 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,32 +584,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,13 +681,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,49 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,73 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,25 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,17 +866,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,30 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -947,7 +935,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,8 +958,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,10 +971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -980,133 +983,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,7 +1502,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2777,13 +2780,25 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="A75" s="8">
+        <v>43752</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="4">
+        <v>100</v>
+      </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+      <c r="F75" s="4">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4"/>
@@ -2894,7 +2909,7 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G73">
+  <autoFilter ref="A2:G74">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2924,10 +2939,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2935,79 +2950,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$75</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>周其强</t>
+  </si>
+  <si>
+    <t>E2835UW27B/65-4/3.2-3.3V/C24</t>
+  </si>
+  <si>
+    <t>E2835UW27B/70-0A/3.1-3.2V/C24</t>
+  </si>
+  <si>
+    <t>E2835UW29(A)-7/70-0A/3.0-3.1V/C29</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -466,8 +475,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -492,26 +501,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,25 +516,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,7 +562,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,45 +585,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +625,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,13 +666,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,133 +822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,31 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,41 +875,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,10 +907,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -941,16 +924,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +961,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -971,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,133 +992,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,11 +1507,11 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2801,28 +2810,48 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="A76" s="8">
+        <v>43760</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="4">
+        <v>100</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="4">
+        <v>50</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="4">
+        <v>50</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -2909,7 +2938,7 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G74">
+  <autoFilter ref="A2:G75">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2939,10 +2968,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2950,79 +2979,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$79</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>E2835UW29(A)-7/70-0A/3.0-3.1V/C29</t>
+  </si>
+  <si>
+    <t>做整灯送样</t>
+  </si>
+  <si>
+    <t>5050四脚透明幻彩，G:3.0-3..2V520-525NM,1300-1500/R:2.0-2.2V,620-625NM,450-550/B:3.0-3.2V,460-470NM,350-400</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -501,16 +507,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,37 +551,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,9 +566,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,6 +617,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,46 +644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,6 +672,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,6 +720,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,13 +744,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,139 +846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,10 +911,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -937,41 +978,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -980,10 +986,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,133 +998,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1507,11 +1513,11 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2857,19 +2863,41 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+      <c r="A79" s="8">
+        <v>43770</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="4">
+        <v>500</v>
+      </c>
+      <c r="E79" s="4">
+        <v>13</v>
+      </c>
+      <c r="F79" s="4">
+        <v>19</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="A80" s="8">
+        <v>43770</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="4">
+        <v>100</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -2938,7 +2966,7 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G75">
+  <autoFilter ref="A2:G79">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2968,10 +2996,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -2979,79 +3007,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$80</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="148">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>5050四脚透明幻彩，G:3.0-3..2V520-525NM,1300-1500/R:2.0-2.2V,620-625NM,450-550/B:3.0-3.2V,460-470NM,350-400</t>
+  </si>
+  <si>
+    <t>5050RGBW-08高亮</t>
+  </si>
+  <si>
+    <t>2835七彩慢闪，</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -481,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -514,45 +520,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,8 +559,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,38 +583,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,16 +606,45 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +678,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,25 +726,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,25 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,60 +840,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -840,19 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,36 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,17 +905,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,16 +962,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,10 +992,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,133 +1004,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,11 +1519,11 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2903,21 +2909,37 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="A81" s="8">
+        <v>43799</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" s="4">
+        <v>20</v>
+      </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="F81" s="4">
+        <v>70</v>
+      </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="4">
+        <v>100</v>
+      </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="F82" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
@@ -2966,7 +2988,7 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G79">
+  <autoFilter ref="A2:G80">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -2996,10 +3018,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3007,79 +3029,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>2835七彩慢闪，</t>
+  </si>
+  <si>
+    <t>0603HB19-Z,51-61MCD,464-467NM,2.8-2.9V,蓝光</t>
+  </si>
+  <si>
+    <t>5.8未税</t>
+  </si>
+  <si>
+    <t>0603HG19-Z,182-200MCD,520-523NM,2.5-2.6V,绿光</t>
+  </si>
+  <si>
+    <t>0603HR02-Z,39-43MCD,618-625NM,1.9-2.0V,红光</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -487,10 +499,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -521,25 +533,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,63 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,9 +577,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,8 +661,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,7 +690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,31 +714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +750,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +810,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -750,13 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,37 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,49 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,45 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -943,20 +916,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,8 +941,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,10 +1004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,133 +1016,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,7 +1535,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2943,30 +2955,60 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+      <c r="A83" s="8">
+        <v>43823</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="F83" s="4">
+        <v>9</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E84" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="F84" s="4">
+        <v>10</v>
+      </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="F85" s="4">
+        <v>9</v>
+      </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
@@ -2988,7 +3030,7 @@
       <c r="G87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G80">
+  <autoFilter ref="A2:G82">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3018,10 +3060,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3029,79 +3071,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="9612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>0603HR02-Z,39-43MCD,618-625NM,1.9-2.0V,红光</t>
+  </si>
+  <si>
+    <t>E2835UR55</t>
+  </si>
+  <si>
+    <t>LSFAWT-B0-1D-G4-BB</t>
+  </si>
+  <si>
+    <t>2.00/个</t>
+  </si>
+  <si>
+    <t>样品已经确认好，今天报价</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -499,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -533,15 +545,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -549,14 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,25 +575,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,14 +592,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,23 +623,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,7 +675,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,7 +702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,19 +726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,13 +750,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,31 +840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,79 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +911,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -910,6 +961,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,67 +1003,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,10 +1016,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,133 +1028,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1530,12 +1542,12 @@
   <sheetPr/>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3012,25 +3024,45 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="A86" s="8">
+        <v>43908</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="4">
+        <v>100</v>
+      </c>
       <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
+      <c r="F86" s="4">
+        <v>20</v>
+      </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="8">
+        <v>43913</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G85">
+  <autoFilter ref="A2:G86">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3047,8 +3079,8 @@
   <sheetPr/>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3060,10 +3092,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3071,79 +3103,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$87</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -439,6 +439,36 @@
   </si>
   <si>
     <t>样品已经确认好，今天报价</t>
+  </si>
+  <si>
+    <t>保镖电子</t>
+  </si>
+  <si>
+    <t>G2835US60-Y</t>
+  </si>
+  <si>
+    <t>E2836UR55</t>
+  </si>
+  <si>
+    <t>1537贴片,6V,6000K,1537AWAA</t>
+  </si>
+  <si>
+    <t>军发电子</t>
+  </si>
+  <si>
+    <t>向林阳</t>
+  </si>
+  <si>
+    <t>E2835UW28B-E/65-SF/</t>
+  </si>
+  <si>
+    <t>洪毅</t>
+  </si>
+  <si>
+    <t>E2835UW24</t>
+  </si>
+  <si>
+    <t>E2835US24</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -511,10 +541,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -538,6 +568,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -552,40 +597,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,9 +619,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,22 +657,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -645,29 +671,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,13 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,66 +774,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -822,13 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,19 +846,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,45 +941,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -965,22 +956,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,8 +989,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,10 +1046,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,16 +1058,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,119 +1076,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1221,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1540,14 +1576,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3061,8 +3097,196 @@
         <v>139</v>
       </c>
     </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="11">
+        <v>43935</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="12">
+        <v>100</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12">
+        <v>16</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="11">
+        <v>43935</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="12">
+        <v>100</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12">
+        <v>20</v>
+      </c>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="11">
+        <v>43935</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="12">
+        <v>20</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="12">
+        <v>100</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12">
+        <v>80</v>
+      </c>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="12">
+        <v>1500</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="12">
+        <v>4000</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="11">
+        <v>43936</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="12">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G86">
+  <autoFilter ref="A2:G87">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3079,7 +3303,7 @@
   <sheetPr/>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3092,10 +3316,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3103,79 +3327,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$94</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -469,6 +469,15 @@
   </si>
   <si>
     <t>E2835US24</t>
+  </si>
+  <si>
+    <t>E2835UW125-2B/65-SF/D130/3.1-3.2V</t>
+  </si>
+  <si>
+    <t>E2835UW55-13,13区，24-26lm</t>
+  </si>
+  <si>
+    <t>E2835UW27,65-3,3.1-3.2V/C25</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -568,7 +577,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,83 +628,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,9 +652,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,6 +705,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -732,13 +741,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,115 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,49 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,21 +946,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,17 +983,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,11 +1015,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,6 +1036,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1046,10 +1055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,137 +1067,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,12 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1583,7 +1586,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M81" sqref="M81"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3098,195 +3101,227 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="11">
+      <c r="A88" s="8">
         <v>43935</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="12">
-        <v>100</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12">
+      <c r="D88" s="4">
+        <v>100</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4">
         <v>16</v>
       </c>
-      <c r="G88" s="12"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="11">
+      <c r="A89" s="8">
         <v>43935</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="12">
-        <v>100</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12">
+      <c r="D89" s="4">
+        <v>100</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4">
         <v>20</v>
       </c>
-      <c r="G89" s="12"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="11">
+      <c r="A90" s="8">
         <v>43935</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="4">
         <v>20</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="11">
+      <c r="A91" s="8">
         <v>43936</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D91" s="12">
-        <v>100</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12">
+      <c r="D91" s="4">
+        <v>100</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4">
         <v>80</v>
       </c>
-      <c r="G91" s="12"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="11">
+      <c r="A92" s="8">
         <v>43936</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="4">
         <v>1500</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="11">
+      <c r="A93" s="8">
         <v>43936</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="4">
         <v>4000</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="11">
+      <c r="A94" s="8">
         <v>43936</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="4">
         <v>4000</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="A95" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" s="4">
+        <v>100</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="A96" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96" s="4">
+        <v>100</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
+      <c r="A97" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="4">
+        <v>200</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
+      <c r="A98" s="8">
+        <v>43943</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98" s="4">
+        <v>200</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G87">
+  <autoFilter ref="A2:G94">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3316,10 +3351,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3327,79 +3362,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$98</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>E2835UW27,65-3,3.1-3.2V/C25</t>
+  </si>
+  <si>
+    <t>超光电子</t>
+  </si>
+  <si>
+    <t>G2835US60-Y/0.5W</t>
+  </si>
+  <si>
+    <t>G2835UW55-13</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -550,10 +559,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -576,6 +585,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -586,6 +625,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,12 +653,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -628,9 +691,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,68 +730,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -741,7 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +786,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,25 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,61 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,31 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,6 +959,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -965,6 +1000,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -976,15 +1029,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,42 +1052,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,133 +1076,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1595,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3294,19 +3303,35 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="A99" s="8">
+        <v>43960</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="4">
+        <v>100</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="A100" s="8">
+        <v>43960</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="4">
+        <v>100</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -3321,7 +3346,7 @@
       <c r="G101" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G94">
+  <autoFilter ref="A2:G98">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3351,10 +3376,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3362,79 +3387,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="9612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="德芯" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$100</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="159">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -489,69 +488,13 @@
     <t>G2835UW55-13</t>
   </si>
   <si>
-    <t>样品型号</t>
-  </si>
-  <si>
-    <t>样品参数</t>
-  </si>
-  <si>
-    <t>9V100MA2835</t>
-  </si>
-  <si>
-    <t>1600-1800K,亮度暂时不知道，用最常规的芯片大小做就好了</t>
-  </si>
-  <si>
-    <t>200pcs</t>
-  </si>
-  <si>
-    <t>9V1OOMA5730</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6000-6500K,R70,120-130lm，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要求底部焊盘是3个的支架</t>
-    </r>
-  </si>
-  <si>
-    <t>200PCS</t>
-  </si>
-  <si>
-    <t>3V60MA金黄光</t>
-  </si>
-  <si>
-    <t>豪通样品</t>
-  </si>
-  <si>
-    <t>根据样品做200个样品</t>
-  </si>
-  <si>
-    <t>9V60MA金黄光</t>
-  </si>
-  <si>
-    <t>0.1W红光</t>
-  </si>
-  <si>
-    <t>测试参数就可，看下芯片大小</t>
-  </si>
-  <si>
-    <t>0.2W红光</t>
-  </si>
-  <si>
-    <t>0.2W黄光</t>
+    <t>正极性黄光8mil</t>
+  </si>
+  <si>
+    <t>2016,35mil芯片</t>
+  </si>
+  <si>
+    <t>3030,3v300ma，125-130lm，6000-6500K,</t>
   </si>
 </sst>
 </file>
@@ -559,12 +502,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +528,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,9 +558,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,65 +612,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,10 +633,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,42 +670,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -750,13 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,13 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,37 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,25 +747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +765,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,13 +789,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,6 +838,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,6 +897,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,36 +979,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1064,10 +995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,161 +1007,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1155,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1588,14 +1510,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1610,1743 +1532,1868 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.2" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>43439</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>43442</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>600</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>600</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>600</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>43448</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" ht="15.6" spans="1:7">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>43448</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
-        <v>100</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="2"/>
       <c r="H13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8">
+      <c r="A14" s="3">
         <v>43517</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="4">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="4">
-        <v>100</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8">
+      <c r="A19" s="3">
         <v>43524</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>400</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8">
+      <c r="A20" s="3">
         <v>43544</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="4">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="2">
+        <v>100</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="4">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="4">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="2">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>43559</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>200</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>200</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8">
+      <c r="A25" s="3">
         <v>43564</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="4">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="2">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8">
+      <c r="A27" s="3">
         <v>43559</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="4">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="2">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="4">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="2">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8">
+      <c r="A29" s="3">
         <v>43571</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>50</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>50</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>50</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>50</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="8">
+      <c r="A33" s="3">
         <v>43572</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>200</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8">
+      <c r="A34" s="3">
         <v>43573</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="4">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8">
+      <c r="A35" s="3">
         <v>43573</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="4">
-        <v>100</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
+      <c r="D35" s="2">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
         <v>12</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="4">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
+      <c r="D36" s="2">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
         <v>13.5</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8">
+      <c r="A37" s="3">
         <v>43573</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>200</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8">
+      <c r="A38" s="3">
         <v>43578</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="4">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8">
+      <c r="A39" s="3">
         <v>43594</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="4">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="2">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8">
+      <c r="A40" s="3">
         <v>43616</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="4">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="2">
+        <v>100</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8">
+      <c r="A41" s="3">
         <v>43616</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="4">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="D41" s="2">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="4">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="D42" s="2">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="4">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="2">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8">
+      <c r="A44" s="3">
         <v>43634</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="4">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="D44" s="2">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8">
+      <c r="A45" s="3">
         <v>43634</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>8</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>8</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8">
+      <c r="A47" s="3">
         <v>43631</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="4">
-        <v>100</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" ht="15.6" spans="1:7">
-      <c r="A48" s="8">
+      <c r="A48" s="3">
         <v>43645</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>230</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
         <v>2.6</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8">
+      <c r="A49" s="3">
         <v>43661</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="4">
-        <v>100</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="D49" s="2">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="8">
+      <c r="A50" s="3">
         <v>43661</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="4">
-        <v>100</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="D50" s="2">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8">
+      <c r="A51" s="3">
         <v>43663</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="4">
-        <v>100</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4">
+      <c r="D51" s="2">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2">
         <v>12</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8">
+      <c r="A52" s="3">
         <v>43666</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="4">
-        <v>100</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4">
+      <c r="D52" s="2">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
         <v>10</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8">
+      <c r="A53" s="3">
         <v>43668</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="4">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="D53" s="2">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8">
+      <c r="A54" s="3">
         <v>43668</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="4">
-        <v>100</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="D54" s="2">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="4">
-        <v>100</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="D55" s="2">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="4">
-        <v>100</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="D56" s="2">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="4">
-        <v>100</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="2">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="4">
-        <v>100</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
+      <c r="D58" s="2">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8">
+      <c r="A59" s="3">
         <v>43672</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="4">
-        <v>100</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4">
+      <c r="D59" s="2">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2">
         <v>28</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="4">
-        <v>100</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4">
+      <c r="D60" s="2">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2">
         <v>45</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="8">
+      <c r="A63" s="3">
         <v>43703</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>50</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="8">
+      <c r="A64" s="3">
         <v>43703</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="8">
+      <c r="A65" s="3">
         <v>43713</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>2000</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="8">
+      <c r="A66" s="3">
         <v>43705</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
         <v>60</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <v>30</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="4">
-        <v>100</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="D68" s="2">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="4">
-        <v>100</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
+      <c r="D69" s="2">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="8">
+      <c r="A70" s="3">
         <v>43717</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="4">
-        <v>100</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4">
+      <c r="D70" s="2">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
         <v>16</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="4">
-        <v>100</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4">
+      <c r="D71" s="2">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2">
         <v>35</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="4">
-        <v>100</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4">
+      <c r="D72" s="2">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2">
         <v>35</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="4">
-        <v>100</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4">
+      <c r="D73" s="2">
+        <v>100</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2">
         <v>45</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="8">
+      <c r="A74" s="3">
         <v>43735</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D74" s="4">
-        <v>100</v>
-      </c>
-      <c r="E74" s="4">
+      <c r="D74" s="2">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2">
         <v>13</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="2">
         <v>19</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="8">
+      <c r="A75" s="3">
         <v>43752</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="4">
-        <v>100</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4">
+      <c r="D75" s="2">
+        <v>100</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
         <v>13</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="8">
+      <c r="A76" s="3">
         <v>43760</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="4">
-        <v>100</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+      <c r="D76" s="2">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="2">
         <v>50</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="2">
         <v>50</v>
       </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="8">
+      <c r="A79" s="3">
         <v>43770</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="2">
         <v>500</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="2">
         <v>13</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="2">
         <v>19</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="8">
+      <c r="A80" s="3">
         <v>43770</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="4">
-        <v>100</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+      <c r="D80" s="2">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="8">
+      <c r="A81" s="3">
         <v>43799</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="2">
         <v>20</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2">
         <v>70</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4" t="s">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D82" s="4">
-        <v>100</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4" t="s">
+      <c r="D82" s="2">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G82" s="4"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="8">
+      <c r="A83" s="3">
         <v>43823</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="2">
         <v>1000</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="2">
         <v>5.8</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="2">
         <v>9</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="2">
         <v>1000</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="2">
         <v>6.8</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="2">
         <v>10</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85" ht="15" customHeight="1" spans="1:7">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="2">
         <v>1000</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="2">
         <v>5.8</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="2">
         <v>9</v>
       </c>
-      <c r="G85" s="4"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="8">
+      <c r="A86" s="3">
         <v>43908</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D86" s="4">
-        <v>100</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4">
+      <c r="D86" s="2">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2">
         <v>20</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="8">
+      <c r="A87" s="3">
         <v>43913</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="8">
+      <c r="A88" s="3">
         <v>43935</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="4">
-        <v>100</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4">
+      <c r="D88" s="2">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2">
         <v>16</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="8">
+      <c r="A89" s="3">
         <v>43935</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="4">
-        <v>100</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4">
+      <c r="D89" s="2">
+        <v>100</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
         <v>20</v>
       </c>
-      <c r="G89" s="4"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="8">
+      <c r="A90" s="3">
         <v>43935</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="2">
         <v>20</v>
       </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="8">
+      <c r="A91" s="3">
         <v>43936</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D91" s="4">
-        <v>100</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4">
+      <c r="D91" s="2">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
         <v>80</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="8">
+      <c r="A92" s="3">
         <v>43936</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="2">
         <v>1500</v>
       </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="8">
+      <c r="A93" s="3">
         <v>43936</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="2">
         <v>4000</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="8">
+      <c r="A94" s="3">
         <v>43936</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="2">
         <v>4000</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="8">
+      <c r="A95" s="3">
         <v>43943</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="4">
-        <v>100</v>
-      </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
+      <c r="D95" s="2">
+        <v>100</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="8">
+      <c r="A96" s="3">
         <v>43943</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D96" s="4">
-        <v>100</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
+      <c r="D96" s="2">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="8">
+      <c r="A97" s="3">
         <v>43943</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="2">
         <v>200</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="8">
+      <c r="A98" s="3">
         <v>43943</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="2">
         <v>200</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="8">
+      <c r="A99" s="3">
         <v>43960</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D99" s="4">
-        <v>100</v>
-      </c>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
+      <c r="D99" s="2">
+        <v>100</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="8">
+      <c r="A100" s="3">
         <v>43960</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D100" s="4">
-        <v>100</v>
-      </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="D100" s="2">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="A101" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="2">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="6">
+        <v>43988</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="7">
+        <v>10</v>
+      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6">
+        <v>43988</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" s="7">
+        <v>300</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G98">
+  <autoFilter ref="A2:G100">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3361,121 +3408,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="43.2" spans="2:4">
-      <c r="B3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="2:4">
-      <c r="B4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9612" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="样品汇总" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$103</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="163">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>3030,3v300ma，125-130lm，6000-6500K,</t>
+  </si>
+  <si>
+    <t>2016氧化铝支架</t>
+  </si>
+  <si>
+    <t>2016氮化铝支架43mil隆达</t>
+  </si>
+  <si>
+    <t>灯带</t>
+  </si>
+  <si>
+    <t>3米</t>
   </si>
 </sst>
 </file>
@@ -528,8 +540,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,22 +570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,13 +591,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -594,17 +599,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,14 +622,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -633,24 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,6 +652,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -681,13 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +711,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,43 +813,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,97 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,11 +904,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,17 +950,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,33 +999,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -995,149 +1007,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,12 +1167,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1512,12 +1518,12 @@
   <sheetPr/>
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3278,122 +3284,146 @@
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="6">
+      <c r="A102" s="3">
         <v>43988</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="2">
         <v>10</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="6">
+      <c r="A103" s="3">
         <v>43988</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="2">
         <v>300</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="A104" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="2">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="A105" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" s="2">
+        <v>10</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+      <c r="A106" s="3">
+        <v>43993</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G100">
+  <autoFilter ref="A2:G103">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3410,7 +3440,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>

--- a/季诚/样品单.xlsx
+++ b/季诚/样品单.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$106</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -507,6 +507,15 @@
   </si>
   <si>
     <t>3米</t>
+  </si>
+  <si>
+    <t>2835蓝光，UB50</t>
+  </si>
+  <si>
+    <t>2835翠绿，UG60-G</t>
+  </si>
+  <si>
+    <t>2836冰蓝光，铁支架21系列</t>
   </si>
 </sst>
 </file>
@@ -540,16 +549,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,14 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,6 +579,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,23 +614,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,6 +638,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -637,16 +654,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -662,23 +678,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,25 +738,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,19 +762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,25 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,19 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,19 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +864,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,20 +911,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,17 +941,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +985,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -984,21 +1008,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1007,10 +1016,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1019,133 +1028,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,7 +1532,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3369,28 +3378,52 @@
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="A107" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" s="2">
+        <v>100</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="A108" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108" s="2">
+        <v>100</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="A109" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="2">
+        <v>100</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -3423,7 +3456,7 @@
       <c r="G112" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G103">
+  <autoFilter ref="A2:G106">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
